--- a/50item_tests/result_solve6.xlsx
+++ b/50item_tests/result_solve6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rard6\Documents\修士\実験\50item_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DE0D1BA-5749-4CB5-AF81-B078BC0729BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5CBC62-C360-4DEA-8027-CB65988B78C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{061DB0AC-AD97-43FD-9C89-F96E4D702DD5}"/>
   </bookViews>
@@ -107,12 +107,40 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -121,7 +149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -131,7 +159,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,7 +482,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -520,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>93.382499999999993</v>
+        <v>89.412599999999998</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
@@ -529,14 +560,18 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>149.12</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1">
+        <v>103.721</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
         <v>0</v>
@@ -544,7 +579,9 @@
       <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="O3" s="1"/>
+      <c r="O3" s="1">
+        <v>589.76099999999997</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
@@ -552,25 +589,31 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>86.518699999999995</v>
+        <v>85.735900000000001</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>134.666</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3">
+        <v>92.726299999999995</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1">
         <v>1</v>
       </c>
-      <c r="O4" s="3"/>
+      <c r="O4" s="3">
+        <v>589.43299999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
@@ -578,25 +621,31 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>114.837</v>
+        <v>112.748</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>151.56700000000001</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
         <v>2</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>104.125</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1">
         <v>2</v>
       </c>
-      <c r="O5" s="1"/>
+      <c r="O5" s="1">
+        <v>638.25099999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
@@ -604,25 +653,31 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>115.928</v>
+        <v>100.43</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>160.06399999999999</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
         <v>3</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>121.48399999999999</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1">
         <v>3</v>
       </c>
-      <c r="O6" s="1"/>
+      <c r="O6" s="1">
+        <v>591.73800000000006</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
@@ -648,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>59.3249</v>
+        <v>52.700699999999998</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -657,14 +712,18 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>87.993899999999996</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1">
+        <v>38.755499999999998</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
         <v>3</v>
@@ -672,7 +731,9 @@
       <c r="N8" s="1">
         <v>0</v>
       </c>
-      <c r="O8" s="1"/>
+      <c r="O8" s="3">
+        <v>424.34300000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
@@ -680,25 +741,31 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>58.198099999999997</v>
+        <v>53.947099999999999</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>83.001199999999997</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <v>35.5837</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1">
         <v>1</v>
       </c>
-      <c r="O9" s="3"/>
+      <c r="O9" s="1">
+        <v>425.34399999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
@@ -706,25 +773,31 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>80.535200000000003</v>
+        <v>73.490499999999997</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>100.501</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
         <v>2</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1">
+        <v>42.258200000000002</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1">
         <v>2</v>
       </c>
-      <c r="O10" s="1"/>
+      <c r="O10" s="1">
+        <v>486.91199999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
@@ -732,25 +805,31 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>76.923500000000004</v>
+        <v>61.9039</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>93.1751</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
         <v>3</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1">
+        <v>45.761400000000002</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1">
         <v>3</v>
       </c>
-      <c r="O11" s="1"/>
+      <c r="O11" s="1">
+        <v>425.23</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
@@ -776,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>41.371600000000001</v>
+        <v>36.686799999999998</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
@@ -785,14 +864,18 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="3">
+        <v>51.225000000000001</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K13" s="3">
+        <v>15.7987</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
         <v>4</v>
@@ -800,33 +883,41 @@
       <c r="N13" s="1">
         <v>0</v>
       </c>
-      <c r="O13" s="1"/>
+      <c r="O13" s="1">
+        <v>332.87799999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
-        <v>40.316499999999998</v>
+      <c r="C14" s="1">
+        <v>36.528799999999997</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="1">
+        <v>57.174999999999997</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="1">
+        <v>17.669599999999999</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1">
         <v>1</v>
       </c>
-      <c r="O14" s="3"/>
+      <c r="O14" s="3">
+        <v>332.32499999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
@@ -834,51 +925,63 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>52.268700000000003</v>
+        <v>41.7331</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>66.515100000000004</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1">
         <v>2</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1">
+        <v>19.296600000000002</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1">
         <v>2</v>
       </c>
-      <c r="O15" s="1"/>
+      <c r="O15" s="1">
+        <v>377.74799999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="1">
-        <v>51.505400000000002</v>
+      <c r="C16" s="3">
+        <v>36.494399999999999</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
         <v>3</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1">
+        <v>58.784199999999998</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1">
         <v>3</v>
       </c>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1">
+        <v>16.773299999999999</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1">
         <v>3</v>
       </c>
-      <c r="O16" s="1"/>
+      <c r="O16" s="1">
+        <v>334.69</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
@@ -904,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>34.561</v>
+        <v>28.418500000000002</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
@@ -913,14 +1016,18 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="1">
+        <v>36.570799999999998</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
       </c>
-      <c r="K18" s="1"/>
+      <c r="K18" s="3">
+        <v>13.368399999999999</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
         <v>5</v>
@@ -928,7 +1035,9 @@
       <c r="N18" s="1">
         <v>0</v>
       </c>
-      <c r="O18" s="3"/>
+      <c r="O18" s="1">
+        <v>281.61900000000003</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
@@ -936,25 +1045,31 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>31.831600000000002</v>
+        <v>27.8491</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>39.108800000000002</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
         <v>1</v>
       </c>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3">
+        <v>13.368399999999999</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1">
         <v>1</v>
       </c>
-      <c r="O19" s="1"/>
+      <c r="O19" s="1">
+        <v>278.709</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
@@ -962,25 +1077,31 @@
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>44.0396</v>
+        <v>31.6752</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1">
         <v>2</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>43.685200000000002</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
         <v>2</v>
       </c>
-      <c r="K20" s="1"/>
+      <c r="K20" s="3">
+        <v>13.368399999999999</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1">
         <v>2</v>
       </c>
-      <c r="O20" s="1"/>
+      <c r="O20" s="1">
+        <v>310.83</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
@@ -988,25 +1109,31 @@
         <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>45.9649</v>
+        <v>28.162099999999999</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1">
         <v>3</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="3">
+        <v>36.496200000000002</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
         <v>3</v>
       </c>
-      <c r="K21" s="1"/>
+      <c r="K21" s="4">
+        <v>13.368399999999999</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1">
         <v>3</v>
       </c>
-      <c r="O21" s="1"/>
+      <c r="O21" s="3">
+        <v>275.56799999999998</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
@@ -1031,8 +1158,8 @@
       <c r="B23" s="1">
         <v>0</v>
       </c>
-      <c r="C23" s="3">
-        <v>30.954899999999999</v>
+      <c r="C23" s="1">
+        <v>24.622499999999999</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
@@ -1041,14 +1168,18 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3">
+        <v>28.1266</v>
+      </c>
       <c r="I23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
       </c>
-      <c r="K23" s="1"/>
+      <c r="K23" s="3">
+        <v>13.368399999999999</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
         <v>6</v>
@@ -1056,7 +1187,9 @@
       <c r="N23" s="1">
         <v>0</v>
       </c>
-      <c r="O23" s="1"/>
+      <c r="O23" s="3">
+        <v>237.767</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
@@ -1064,77 +1197,95 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>29.401199999999999</v>
+        <v>25.360299999999999</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>29.176200000000001</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1">
         <v>1</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3">
+        <v>13.368399999999999</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1">
         <v>1</v>
       </c>
-      <c r="O24" s="3"/>
+      <c r="O24" s="1">
+        <v>241.303</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>2</v>
       </c>
-      <c r="C25" s="1">
-        <v>32.784399999999998</v>
+      <c r="C25" s="3">
+        <v>24.099499999999999</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1">
         <v>2</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>35.288200000000003</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1">
         <v>2</v>
       </c>
-      <c r="K25" s="1"/>
+      <c r="K25" s="3">
+        <v>13.368399999999999</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1">
         <v>2</v>
       </c>
-      <c r="O25" s="1"/>
+      <c r="O25" s="1">
+        <v>267.39499999999998</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>3</v>
       </c>
-      <c r="C26" s="1">
-        <v>25.988199999999999</v>
+      <c r="C26" s="3">
+        <v>24.099499999999999</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1">
         <v>3</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>30.504100000000001</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1">
         <v>3</v>
       </c>
-      <c r="K26" s="1"/>
+      <c r="K26" s="4">
+        <v>13.368399999999999</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1">
         <v>3</v>
       </c>
-      <c r="O26" s="1"/>
+      <c r="O26" s="1">
+        <v>238.179</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
